--- a/Tatulya/create cards/07.04.2024/Data_to_create_07.04.2024_output_data_for_WB.xlsx
+++ b/Tatulya/create cards/07.04.2024/Data_to_create_07.04.2024_output_data_for_WB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
   <si>
     <t xml:space="preserve">Номер карточки</t>
   </si>
@@ -85,266 +85,26 @@
     <t xml:space="preserve">Amazing Pics</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Штрихкод I Love You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Штрихкод I Love You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532939087</t>
+    <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка для одежды: Мишка красная гоночная машина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1532936207</t>
   </si>
   <si>
     <t xml:space="preserve">Полимерный материал</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Штрихкод I Love You - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
+    <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </t>
   </si>
   <si>
     <t xml:space="preserve">Россия</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/52_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Дисней злодеи Друзья Friends </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532940236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends  - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/53_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки голова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Леопард пятна сердечки голова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532939681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки голова - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/54_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Матрешка цветы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Матрешка цветы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Матрешка цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/55_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки полностью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Леопард пятна сердечки полностью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Леопард пятна сердечки полностью - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/56_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Цветы Синии Амариллис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Цветы Синии Амариллис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532937945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Цветы Синии Амариллис - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/57_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Перья Яркие Wild Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Перья Яркие Wild Spirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Перья Яркие Wild Spirit - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/58_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Перья Украшение Ожерелье</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Перья Украшение Ожерелье</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532940241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Перья Украшение Ожерелье - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/59_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Сердце Бабочки летят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Сердце Бабочки летят</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Сердце Бабочки летят - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/60_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Рука Фатимы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Рука Фатимы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Рука Фатимы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/62_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Кассета цветы Vintage Soul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Кассета цветы Vintage Soul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532939316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Кассета цветы Vintage Soul - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/64_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Большая волна в Канагаве Солнце</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Большая волна в Канагаве Солнце</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Большая волна в Канагаве Солнце - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/65_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Фламинго Flamingo цветы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Фламинго Flamingo цветы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Фламинго Flamingo цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/66_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Инь Янь Леопарды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Инь Янь Леопарды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Инь Янь Леопарды - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/69_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Змеи черная белая 2шт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Змеи черная белая 2шт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532940015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Змеи черная белая 2шт - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/70_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды: Мишка красная гоночная машина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532936207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка стоит с скейтом</t>
@@ -360,7 +120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка Серфинг Волна Лето</t>
@@ -376,7 +136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка сидит в очках Alone</t>
@@ -392,7 +152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка на Самокате</t>
@@ -408,7 +168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка Терминатор</t>
@@ -424,7 +184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка гидроцикл волна лето</t>
@@ -440,7 +200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка репер читает с микрофоном</t>
@@ -456,7 +216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка Серфинг с парусом волна</t>
@@ -472,7 +232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка маска плавание лето селфи</t>
@@ -488,7 +248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка на лыжах</t>
@@ -504,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка байкер мотоцикл</t>
@@ -520,7 +280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка велосипед</t>
@@ -536,7 +296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка Каратэ нога вверх</t>
@@ -552,7 +312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка скейт бежит</t>
@@ -568,7 +328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка скейт Lets move</t>
@@ -584,7 +344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус и бабочка</t>
@@ -600,7 +360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус поправляет бант</t>
@@ -616,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дисней утка Дейзи Сердечко</t>
@@ -632,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни сидят</t>
@@ -648,7 +408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни мороженое</t>
@@ -664,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дисней утка Дейзи улыбка</t>
@@ -680,7 +440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дисней утка Дейзи и Минни пис</t>
@@ -696,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дейзи и Минни Маус коктейль</t>
@@ -712,7 +472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус целует Микки</t>
@@ -728,39 +488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейки Nike Найк набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды:Термонаклейки Nike Найк набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532938438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейки Nike Найк набор - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/200_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейки Nike Adidas Reebok Vans Puma набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка для одежды:Термонаклейки Nike Adidas Reebok Vans Puma набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1532939464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейки Nike Adidas Reebok Vans Puma набор - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/201_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4;</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</t>
   </si>
 </sst>
 </file>
@@ -883,15 +611,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>12</v>
@@ -1026,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>12</v>
@@ -1070,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>12</v>
@@ -1114,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>12</v>
@@ -1158,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>12</v>
@@ -1202,10 +932,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>12</v>
@@ -1246,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>12</v>
@@ -1290,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>12</v>
@@ -1334,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>12</v>
@@ -1378,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>12</v>
@@ -1422,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>12</v>
@@ -1466,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>12</v>
@@ -1510,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>12</v>
@@ -1554,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>12</v>
@@ -1598,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>12</v>
@@ -2053,754 +1783,23 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R31" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R32" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S32" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R33" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R35" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R36" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S36" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R37" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S37" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R38" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S38" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R39" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S39" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S40" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S41" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q42" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R42" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>349</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q43" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="R43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="S43" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
